--- a/Data/EC/NIT-9004058436.xlsx
+++ b/Data/EC/NIT-9004058436.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2ED4352-1E39-4E48-8AE9-B1419C735636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC97B06A-2857-4032-9F29-FEFF91886AA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9D41FF14-A33B-4244-9F10-5B5A530C6254}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3F965E3D-2492-4F67-9140-305A4154363C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,88 +71,88 @@
     <t>ARNOLD ELLES VALENCIA</t>
   </si>
   <si>
+    <t>1607</t>
+  </si>
+  <si>
+    <t>19597558</t>
+  </si>
+  <si>
+    <t>RAFAEL PRUDENCIO BUELVAS DIAZ</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>9693313</t>
+  </si>
+  <si>
+    <t>JOSE ALBERTO RENDON PEREZ</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
     <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1607</t>
-  </si>
-  <si>
-    <t>19597558</t>
-  </si>
-  <si>
-    <t>RAFAEL PRUDENCIO BUELVAS DIAZ</t>
-  </si>
-  <si>
-    <t>9693313</t>
-  </si>
-  <si>
-    <t>JOSE ALBERTO RENDON PEREZ</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -251,7 +251,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -264,9 +266,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -466,23 +466,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -510,10 +510,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -566,7 +566,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC8B0F8A-3E0D-FB39-E351-23BF4833D586}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22D92D84-AE45-E747-7F68-8D3B80C40D07}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -917,7 +917,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E20E5B25-0E79-4D12-8BFF-AC625596E1A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E996D5D-FC8C-4CB5-BE51-8C1C665CE51B}">
   <dimension ref="B2:J71"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1109,19 +1109,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>25774</v>
+        <v>32000</v>
       </c>
       <c r="G17" s="18">
-        <v>781242</v>
+        <v>800000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1138,7 +1138,7 @@
         <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F18" s="18">
         <v>25774</v>
@@ -1155,19 +1155,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>25774</v>
+        <v>32000</v>
       </c>
       <c r="G19" s="18">
-        <v>781242</v>
+        <v>800000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1201,19 +1201,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F21" s="18">
-        <v>25774</v>
+        <v>32000</v>
       </c>
       <c r="G21" s="18">
-        <v>781242</v>
+        <v>800000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1230,7 +1230,7 @@
         <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F22" s="18">
         <v>25774</v>
@@ -1247,19 +1247,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F23" s="18">
-        <v>25774</v>
+        <v>32000</v>
       </c>
       <c r="G23" s="18">
-        <v>781242</v>
+        <v>800000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1276,7 +1276,7 @@
         <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F24" s="18">
         <v>25774</v>
@@ -1293,19 +1293,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F25" s="18">
-        <v>25774</v>
+        <v>32000</v>
       </c>
       <c r="G25" s="18">
-        <v>781242</v>
+        <v>800000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1322,7 +1322,7 @@
         <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F26" s="18">
         <v>25774</v>
@@ -1339,19 +1339,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F27" s="18">
-        <v>25774</v>
+        <v>32000</v>
       </c>
       <c r="G27" s="18">
-        <v>781242</v>
+        <v>800000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1368,7 +1368,7 @@
         <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F28" s="18">
         <v>25774</v>
@@ -1385,19 +1385,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F29" s="18">
-        <v>25774</v>
+        <v>32000</v>
       </c>
       <c r="G29" s="18">
-        <v>781242</v>
+        <v>800000</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1414,7 +1414,7 @@
         <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F30" s="18">
         <v>25774</v>
@@ -1431,19 +1431,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F31" s="18">
-        <v>25774</v>
+        <v>32000</v>
       </c>
       <c r="G31" s="18">
-        <v>781242</v>
+        <v>800000</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1460,7 +1460,7 @@
         <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F32" s="18">
         <v>25774</v>
@@ -1477,19 +1477,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F33" s="18">
-        <v>25774</v>
+        <v>32000</v>
       </c>
       <c r="G33" s="18">
-        <v>781242</v>
+        <v>800000</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1506,7 +1506,7 @@
         <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F34" s="18">
         <v>25774</v>
@@ -1523,19 +1523,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F35" s="18">
-        <v>25774</v>
+        <v>32000</v>
       </c>
       <c r="G35" s="18">
-        <v>781242</v>
+        <v>800000</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1552,7 +1552,7 @@
         <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F36" s="18">
         <v>25774</v>
@@ -1569,19 +1569,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="F37" s="18">
-        <v>25774</v>
+        <v>32000</v>
       </c>
       <c r="G37" s="18">
-        <v>781242</v>
+        <v>800000</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1598,7 +1598,7 @@
         <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="F38" s="18">
         <v>25774</v>
@@ -1615,19 +1615,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="F39" s="18">
-        <v>25774</v>
+        <v>32000</v>
       </c>
       <c r="G39" s="18">
-        <v>781242</v>
+        <v>800000</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1638,19 +1638,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F40" s="18">
-        <v>32000</v>
+        <v>76000</v>
       </c>
       <c r="G40" s="18">
-        <v>800000</v>
+        <v>1900000</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1661,19 +1661,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="F41" s="18">
-        <v>32000</v>
+        <v>25774</v>
       </c>
       <c r="G41" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1684,13 +1684,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="F42" s="18">
         <v>32000</v>
@@ -1707,19 +1707,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F43" s="18">
-        <v>32000</v>
+        <v>76000</v>
       </c>
       <c r="G43" s="18">
-        <v>800000</v>
+        <v>1900000</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1730,19 +1730,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="F44" s="18">
-        <v>32000</v>
+        <v>25774</v>
       </c>
       <c r="G44" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1753,13 +1753,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F45" s="18">
         <v>32000</v>
@@ -1776,19 +1776,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F46" s="18">
-        <v>32000</v>
+        <v>25774</v>
       </c>
       <c r="G46" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1799,13 +1799,13 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="F47" s="18">
         <v>32000</v>
@@ -1822,19 +1822,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F48" s="18">
-        <v>32000</v>
+        <v>25774</v>
       </c>
       <c r="G48" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -1845,13 +1845,13 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F49" s="18">
         <v>32000</v>
@@ -1868,19 +1868,19 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F50" s="18">
-        <v>32000</v>
+        <v>25774</v>
       </c>
       <c r="G50" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -1891,13 +1891,13 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F51" s="18">
         <v>32000</v>
@@ -1914,19 +1914,19 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F52" s="18">
-        <v>32000</v>
+        <v>25774</v>
       </c>
       <c r="G52" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -1937,13 +1937,13 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F53" s="18">
         <v>32000</v>
@@ -1960,19 +1960,19 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="F54" s="18">
-        <v>32000</v>
+        <v>25774</v>
       </c>
       <c r="G54" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -1983,13 +1983,13 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F55" s="18">
         <v>32000</v>
@@ -2006,19 +2006,19 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="F56" s="18">
-        <v>32000</v>
+        <v>25774</v>
       </c>
       <c r="G56" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2029,13 +2029,13 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F57" s="18">
         <v>32000</v>
@@ -2052,19 +2052,19 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D58" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E58" s="16" t="s">
-        <v>29</v>
-      </c>
       <c r="F58" s="18">
-        <v>32000</v>
+        <v>25774</v>
       </c>
       <c r="G58" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2075,13 +2075,13 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E59" s="16" t="s">
         <v>35</v>
-      </c>
-      <c r="D59" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E59" s="16" t="s">
-        <v>30</v>
       </c>
       <c r="F59" s="18">
         <v>32000</v>
@@ -2098,19 +2098,19 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D60" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E60" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="E60" s="16" t="s">
-        <v>31</v>
-      </c>
       <c r="F60" s="18">
-        <v>32000</v>
+        <v>25774</v>
       </c>
       <c r="G60" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2121,13 +2121,13 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="D61" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E61" s="16" t="s">
         <v>36</v>
-      </c>
-      <c r="E61" s="16" t="s">
-        <v>32</v>
       </c>
       <c r="F61" s="18">
         <v>32000</v>
@@ -2144,19 +2144,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F62" s="18">
-        <v>32000</v>
+        <v>25774</v>
       </c>
       <c r="G62" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2167,13 +2167,13 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F63" s="18">
         <v>32000</v>
@@ -2190,19 +2190,19 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D64" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E64" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="E64" s="16" t="s">
-        <v>22</v>
-      </c>
       <c r="F64" s="18">
-        <v>76000</v>
+        <v>25774</v>
       </c>
       <c r="G64" s="18">
-        <v>1900000</v>
+        <v>781242</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2213,19 +2213,19 @@
         <v>8</v>
       </c>
       <c r="C65" s="22" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="D65" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E65" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="E65" s="22" t="s">
-        <v>23</v>
-      </c>
       <c r="F65" s="24">
-        <v>76000</v>
+        <v>32000</v>
       </c>
       <c r="G65" s="24">
-        <v>1900000</v>
+        <v>800000</v>
       </c>
       <c r="H65" s="25"/>
       <c r="I65" s="25"/>
